--- a/populasi/latihan/data.xlsx
+++ b/populasi/latihan/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kuliah\semester5\teknik-optimasi\perkuliahan-teknik-optimasi-2021\Knapsack problem &amp; Algoritma Genetika (pembangkitan populasi awal)\latihan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kuliah\semester5\teknik-optimasi\perkuliahan-teknik-optimasi-2021\UTS\populasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,15 +480,15 @@
       </c>
       <c r="D3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -497,23 +497,23 @@
       </c>
       <c r="B4" s="7">
         <f t="shared" ref="B4:B9" ca="1" si="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -547,7 +547,7 @@
       </c>
       <c r="B6" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" ca="1" si="0"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="D6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" ca="1" si="0"/>
@@ -563,7 +563,7 @@
       </c>
       <c r="F6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -576,7 +576,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -588,7 +588,7 @@
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -605,11 +605,11 @@
       </c>
       <c r="D8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" ca="1" si="0"/>
@@ -630,11 +630,11 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
